--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.santos\Desktop\Bataille Navale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.santos\Documents\GitHub\BatailleNavale-TiagoSantos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Journal de travail - ICT 431/Bataille Navale</t>
+  </si>
+  <si>
+    <t>Use cases et Scénarios</t>
+  </si>
+  <si>
+    <t>Bataille Navale/ICT 431</t>
+  </si>
+  <si>
+    <t>Initiation des use cases et scénarios</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +444,8 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
@@ -484,13 +494,28 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="C3" s="3">
+        <v>43868</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3-D3</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -498,7 +523,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F49" si="0">E4-D4</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -509,7 +537,10 @@
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -520,7 +551,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -531,7 +565,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -542,7 +579,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -553,7 +593,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -564,7 +607,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -575,7 +621,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -586,7 +635,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -597,7 +649,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -608,7 +663,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -619,7 +677,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -630,7 +691,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -641,7 +705,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -652,7 +719,10 @@
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -663,7 +733,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -674,7 +747,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -685,7 +761,10 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -696,7 +775,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -707,7 +789,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -718,7 +803,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -729,7 +817,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -740,7 +831,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -751,7 +845,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -762,7 +859,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -773,7 +873,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -784,7 +887,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -795,7 +901,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -806,7 +915,10 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -817,7 +929,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -828,7 +943,10 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -839,7 +957,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -850,7 +971,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -861,7 +985,10 @@
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -872,7 +999,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -883,7 +1013,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -894,7 +1027,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -905,7 +1041,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -916,7 +1055,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -927,7 +1069,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -938,7 +1083,10 @@
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -949,7 +1097,10 @@
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -960,7 +1111,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -971,7 +1125,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -982,7 +1139,10 @@
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -993,7 +1153,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -56,13 +56,34 @@
     <t>Journal de travail - ICT 431/Bataille Navale</t>
   </si>
   <si>
-    <t>Use cases et Scénarios</t>
-  </si>
-  <si>
     <t>Bataille Navale/ICT 431</t>
   </si>
   <si>
-    <t>Initiation des use cases et scénarios</t>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiation de la maquette </t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>Continuation de la maquette</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Clion</t>
+  </si>
+  <si>
+    <t>initiation MCD</t>
+  </si>
+  <si>
+    <t>MCD Fini</t>
+  </si>
+  <si>
+    <t>Initiation code bataille navale</t>
   </si>
 </sst>
 </file>
@@ -435,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,84 +516,142 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3">
-        <v>43868</v>
+        <v>43894</v>
       </c>
       <c r="D3" s="4">
-        <v>0.5625</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E3" s="4">
-        <v>0.62847222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F3" s="4">
         <f>E3-D3</f>
-        <v>6.597222222222221E-2</v>
+        <v>5.9027777777777735E-2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3">
+        <v>43894</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F49" si="0">E4-D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3">
+        <v>43896</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>3.4722222222222154E-2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3">
+        <v>43896</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="3">
+        <v>43896</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>Initiation code bataille navale</t>
+  </si>
+  <si>
+    <t>Théorie</t>
+  </si>
+  <si>
+    <t>Théorie sur la planification du projet</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Planification</t>
+  </si>
+  <si>
+    <t>Realisation des sprints pour planifier le projet</t>
   </si>
 </sst>
 </file>
@@ -457,7 +472,7 @@
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,31 +670,59 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3">
+        <v>43901</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="3">
+        <v>43901</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Realisation des sprints pour planifier le projet</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>19</v>
@@ -726,31 +729,55 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="3">
+        <v>43903</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="3">
+        <v>43903</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.santos\Documents\GitHub\BatailleNavale-TiagoSantos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcamo\OneDrive\Documents\GitHub\BatailleNavale-TiagoSantos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_22BD017DA08AD5D86A83727D2FD74EB5E87188EE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8D3600FD-E52C-4370-8DE8-654DEFEA7736}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="4110" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -102,12 +109,18 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Grille de 10x10 avec les bateaux</t>
+  </si>
+  <si>
+    <t>Tir en horizontal et vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,14 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -748,7 +761,9 @@
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
@@ -774,7 +789,9 @@
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcamo\OneDrive\Documents\GitHub\BatailleNavale-TiagoSantos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_22BD017DA08AD5D86A83727D2FD74EB5E87188EE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8D3600FD-E52C-4370-8DE8-654DEFEA7736}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_22BD017DA08AD5D86A83727D2FD74EB5E87188EE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D6CA6CD0-B5D1-4237-9C2E-1A8661B86B32}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Tir en horizontal et vertical</t>
+  </si>
+  <si>
+    <t>Affichage "Aide"</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,17 +801,31 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3">
+        <v>43908</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.875</v>
+      </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>

--- a/Journal de travail - Tiago Santos.xlsx
+++ b/Journal de travail - Tiago Santos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcamo\OneDrive\Documents\GitHub\BatailleNavale-TiagoSantos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_22BD017DA08AD5D86A83727D2FD74EB5E87188EE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D6CA6CD0-B5D1-4237-9C2E-1A8661B86B32}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_22BD017DA08AD5D86A83727D2FD74EB5E87188EE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8008D058-EDB1-49DF-8ACA-E1A4388EEF45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="240" windowWidth="23880" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Affichage "Aide"</t>
+  </si>
+  <si>
+    <t>Essayer d'enregistrer les scores</t>
+  </si>
+  <si>
+    <t>Commenté le code et vérification avec le rendu</t>
   </si>
 </sst>
 </file>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,31 +835,59 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3">
+        <v>43922</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="3">
+        <v>43929</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.625</v>
+      </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
